--- a/queens/config/templates/dukes_ch_5.xlsx
+++ b/queens/config/templates/dukes_ch_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro\AppData\Local\queens\queens\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3653A9D-6841-4A97-9B99-47A3AE1025B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8A1EB7-1364-431A-B5F6-0043A5593919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="10" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5.1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4916" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4916" uniqueCount="735">
   <si>
     <t>Production</t>
   </si>
@@ -2248,6 +2248,9 @@
   </si>
   <si>
     <t>TWh</t>
+  </si>
+  <si>
+    <t>All non-UK</t>
   </si>
 </sst>
 </file>
@@ -9267,7 +9270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F148AA1B-B0D2-40E8-9453-FE837053713A}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9779,10 +9782,10 @@
         <v>623</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>734</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
         <v>69</v>
@@ -9796,10 +9799,10 @@
         <v>624</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>734</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
         <v>69</v>
@@ -9813,7 +9816,7 @@
         <v>625</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>734</v>
       </c>
       <c r="D32" t="s">
         <v>648</v>
@@ -14053,7 +14056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BCCB1E-831D-451C-9C3C-2D66BD5CEFE7}">
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
